--- a/medicine/Sexualité et sexologie/Cinquante_Nuances_plus_sombres_(film)/Cinquante_Nuances_plus_sombres_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Cinquante_Nuances_plus_sombres_(film)/Cinquante_Nuances_plus_sombres_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinquante Nuances plus sombres (Fifty Shades Darker) est un film dramatico-érotico-romantique américano-sino-japonais réalisé par James Foley, sorti en 2017.
 Il s'agit de l'adaptation du bestseller homonyme d'E. L. James, deuxième tome de la trilogie Fifty Shades. C'est la suite du film Cinquante nuances de Grey, sorti en 2015, qui adaptait le premier opus. Il est suivi du film Cinquante nuances plus claires, l'adaptation du dernier opus de la trilogie et sorti en 2018.
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après que Anastasia a rompu avec Christian, celui-ci fait des cauchemars à propos de son enfance. Pendant ce temps, Ana commence un nouveau travail en tant qu'assistante de Jack Hyde, un éditeur de la société Seattle Independant Publishing (SIP) dont les trois assistantes précédentes ont démissionné au cours des dix-huit derniers mois. Ana est surprise de voir Christian à l'ouverture de l'exposition de photographies de son ami José Rodriguez. Elle est consternée quand Christian lui apprend qu'il a acheté tous les portraits d'Ana. Christian propose à Ana de reprendre leur relation avec quelques modifications dans le contrat : plus aucune règle, plus aucun secret.
 Alors que Jack et Ana se retrouvent pour boire un verre après le travail, Ana se fait aborder dans la rue par une jeune femme qui lui ressemble. Christian arrive au bar et se montre froid envers Jack, puis s'en va rapidement avec Ana. Ana ignore l'avertissement de Christian concernant la réputation de Jack. Elle est consternée quand Christian lui annonce qu'il envisage de racheter la SIP.
@@ -555,14 +569,16 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Fifty Shades Darker
 Titre français et québécois : Cinquante nuances plus sombres
 Réalisation : James Foley
 Scénario : Niall Leonard, d'après Cinquante Nuances plus sombres (Fifty Shades Darker) d'E. L. James
-Musique : Danny Elfman[1]
+Musique : Danny Elfman
 Direction artistique : Peter Bodnarus, Jeremy Stanbridge et Craig Humphries
 Décors : Nelson Coates
 Costumes : Shay Cunliffe et Karin Nosella
@@ -570,7 +586,7 @@
 Son : Jason Chiodo, Oleg Kulchytskyi, Frank A. Montaño et Jon Taylor
 Montage : Richard Francis-Bruce
 Production : Dana Brunetti, Michael De Luca, E. L. James et Marcus Viscidi
-Sociétés de production[2] :
+Sociétés de production :
 États-Unis : Michael De Luca Productions, avec la participation de Universal Pictures
 Chine : Perfect World Pictures
 Japon : en association avec Dentsu et Fuji Television Network
@@ -579,24 +595,24 @@
 Japon : Toho-Towa
 France : Universal Pictures International
 Belgique : Sony Pictures Releasing, Universal Pictures International
-Budget : 55 millions de $[3]
+Budget : 55 millions de $
 Pays d'origine :  États-Unis,  Chine,  Japon
 Langue originale : anglais
-Format[4] : couleur - D-Cinema - 2,39:1 (Cinémascope) (Panavision) - son Auro 11.1 | Dolby Atmos | Dolby Surround 7.1 | DTS | Dolby Digital
+Format : couleur - D-Cinema - 2,39:1 (Cinémascope) (Panavision) - son Auro 11.1 | Dolby Atmos | Dolby Surround 7.1 | DTS | Dolby Digital
 Genres : drame, romance, thriller, érotique
 Durée : 118 minutes (version cinéma) ; 131 minutes (version non censurée)
-Dates de sortie[5] :
-France, Belgique, Suisse romande : 8 février 2017[6],[7]
-États-Unis, Québec : 10 février 2017[8]
+Dates de sortie :
+France, Belgique, Suisse romande : 8 février 2017,
+États-Unis, Québec : 10 février 2017
 Japon : 27 juin 2017
-Classification[9] :
+Classification :
  États-Unis : Interdit aux moins de 17 ans (certificat #50775) (R – Restricted) [Note 1].
  Chine : Pas de système.
  Japon : R15+ (R-15) - Interdit au moins de 15 ans.
- France : Interdit aux moins de 12 ans (visa d'exploitation no 145623 délivré le 7 février 2017)[10],[Note 2].
- Belgique : Interdit aux moins de 16 ans (KNT/ENA : Kinderen Niet Toegelaten /Enfants Non Admis)[6],[11],[Note 3].
+ France : Interdit aux moins de 12 ans (visa d'exploitation no 145623 délivré le 7 février 2017),[Note 2].
+ Belgique : Interdit aux moins de 16 ans (KNT/ENA : Kinderen Niet Toegelaten /Enfants Non Admis)[Note 3].
  Québec : 16 ans et plus (16+ / 16 years and over).
- Suisse romande : Interdit aux moins de 16 ans[12].</t>
+ Suisse romande : Interdit aux moins de 16 ans.</t>
         </is>
       </c>
     </row>
@@ -624,7 +640,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dakota Johnson (VF : Delphine Rivière et VQ : Rachel Graton) : Anastasia « Ana » Steele
 Jamie Dornan (VF : Valentin Merlet et VQ : Éric Bruneau) : Christian Grey
@@ -644,7 +662,7 @@
 Amy Price-Francis (VF : Véronique Picciotto) : Liz Morgan
 Bruce Altman (VF : Jean-Bernard Guillard) : Jerry Roach
 Ryker et Logan Brown : Christian à l'âge de 4 ans.
-Source et légende  : version française (VF) sur AlloDoublage[13]</t>
+Source et légende  : version française (VF) sur AlloDoublage</t>
         </is>
       </c>
     </row>
@@ -674,12 +692,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Développement
-Attribution des rôles
-Tournage
-Dakota Johnson annonce lors d'une interview début juillet 2015 que le tournage commencera à Vancouver le 15 février suivant. Plus tard, la production fait savoir que les suites de la trilogie Fifty Shades seront tournées en même temps. Il est aussi annoncé le même mois que la production ainsi que les acteurs principaux se rendront en France de début à mi-juillet pour tourner quelques scènes de Cinquante nuances plus claires. Le tournage s'est achevé le 23 juillet 2016.
-Bande originale
-Fifty Shades Darker: Original Motion Picture Soundtrack est la bande originale du film. Il s'agit d'une compilation des chansons entendues dans le film, interprétées par divers artistes comme Zayn Malik &amp; Taylor Swift, Halsey et Sia).</t>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dakota Johnson annonce lors d'une interview début juillet 2015 que le tournage commencera à Vancouver le 15 février suivant. Plus tard, la production fait savoir que les suites de la trilogie Fifty Shades seront tournées en même temps. Il est aussi annoncé le même mois que la production ainsi que les acteurs principaux se rendront en France de début à mi-juillet pour tourner quelques scènes de Cinquante nuances plus claires. Le tournage s'est achevé le 23 juillet 2016.
+</t>
         </is>
       </c>
     </row>
@@ -704,19 +724,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Accueil</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-À l'instar de Cinquante nuances de Grey, le film est largement mal accueilli par la critique[14], obtenant 9 % de taux d'approbation sur le site Rotten Tomatoes pour une moyenne de 3,4⁄10[15] et un score de 33⁄100 sur le site Metacritic, pour 39 critiques collectés[16].
-Sur Allociné le film reçoit un accueil négatif. Il obtient une moyenne de 1,5/5 sur 15 critiques[17] presse mais fait un peu mieux auprès des spectateurs en obtenant une moyenne de 2,3/5 [18].
-Box-office
-Lors des premières séances parisiennes, le film attire 2 655 spectateurs[21] (alors que Cinquante Nuances de Grey avait attiré 4 501 spectateurs[22] en 2015).
-Cinquante Nuances plus sombres attirent 288 723 spectateurs[23] pour son premier jour. En cinq jours, il recueille 1 237 360 entrées[23]. Pour sa première semaine, le film cumule 1 618 110 entrées[23] (soit 463 528 entrées de moins que Cinquante Nuances de Grey sur la même durée).
-Aux États-Unis, pour son premier jour, le film cumule 21 444 970 $[24]. Pour son premier week-end, il cumule 46 607 250[24]$ (soit un peu plus de la moitié de ce qui avait été cumulé par Cinquante nuances de Grey aux États-Unis pour son premier week-end).
-</t>
+          <t>Bande originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fifty Shades Darker: Original Motion Picture Soundtrack est la bande originale du film. Il s'agit d'une compilation des chansons entendues dans le film, interprétées par divers artistes comme Zayn Malik &amp; Taylor Swift, Halsey et Sia).</t>
         </is>
       </c>
     </row>
@@ -741,14 +760,20 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Accueil</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Entre 2017 et 2018, Cinquante Nuances plus sombres a été sélectionné 17 fois dans diverses catégories et a remporté 4 récompenses[25],[26].
-Distinctions 2017
-Distinctions 2018</t>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'instar de Cinquante nuances de Grey, le film est largement mal accueilli par la critique, obtenant 9 % de taux d'approbation sur le site Rotten Tomatoes pour une moyenne de 3,4⁄10 et un score de 33⁄100 sur le site Metacritic, pour 39 critiques collectés.
+Sur Allociné le film reçoit un accueil négatif. Il obtient une moyenne de 1,5/5 sur 15 critiques presse mais fait un peu mieux auprès des spectateurs en obtenant une moyenne de 2,3/5 .
+</t>
         </is>
       </c>
     </row>
@@ -773,23 +798,100 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors des premières séances parisiennes, le film attire 2 655 spectateurs (alors que Cinquante Nuances de Grey avait attiré 4 501 spectateurs en 2015).
+Cinquante Nuances plus sombres attirent 288 723 spectateurs pour son premier jour. En cinq jours, il recueille 1 237 360 entrées. Pour sa première semaine, le film cumule 1 618 110 entrées (soit 463 528 entrées de moins que Cinquante Nuances de Grey sur la même durée).
+Aux États-Unis, pour son premier jour, le film cumule 21 444 970 $. Pour son premier week-end, il cumule 46 607 250$ (soit un peu plus de la moitié de ce qui avait été cumulé par Cinquante nuances de Grey aux États-Unis pour son premier week-end).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cinquante_Nuances_plus_sombres_(film)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cinquante_Nuances_plus_sombres_(film)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 2017 et 2018, Cinquante Nuances plus sombres a été sélectionné 17 fois dans diverses catégories et a remporté 4 récompenses,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cinquante_Nuances_plus_sombres_(film)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cinquante_Nuances_plus_sombres_(film)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Différences principales avec le roman
-La durée que dure la séparation des deux protagonistes semble de plusieurs semaines dans le film. Dans le roman, seul cinq jours s'écoulent[27].
-Dans le livre, c'est Christian qui amène Anastasia au vernissage de José après l'avoir recontacté[28].
-Christian délimite une zone de son corps qu'Anastasia ne peut toucher. Dans le film, il s'agit d'une partie de son torse ; dans le livre, cela comprend également son dos[29].
-Lorsqu'ils sont sur le voilier, Christian dévoile à Anastasia comment Grace l'a recueilli après la mort de sa mère biologique. Dans le tome, c'est Carrick lors de la soirée de charité qui dévoilera à Anastasia ces informations[30].
-Les grands parents de Christian ainsi que Sean, le petit ami de Mia ne sont pas présents dans le film[31].
-Il en va de même pour Le Dr. Flynn, psychologue de Christian[32].
-Dans le tome, Elena souhaite le bonheur du couple mais menacera tout de même la jeune femme si elle fait du mal à Christian, tout en insistant pour la voir à plusieurs reprises afin d'apaiser les tensions[33]. Dans le film, elle interfère moins dans leur histoire qui est de toute façon vouée à l'échec selon elle.
-Dans le livre, Anastasia acceptera de partir avec Jack pour New York et c'est Christian qui bloquera le déplacement[34].
-Après que Christian a maitrisé Leila, Anastasia part seule dans la rue. Dans le livre, elle se confiera à Ethan, le frère de Kate déjà absent du premier film[35].
-Christian demandera à Ray au téléphone la permission d'épouser d'Anastasia. Dans ce second film, Ray n'apparaît pas[36].
-Dans le tome 2, Kate découvrira interloquée la nature sadomasochiste entre Anastasia et Christian[37]. Cette scène est également absente du film</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Différences principales avec le roman</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La durée que dure la séparation des deux protagonistes semble de plusieurs semaines dans le film. Dans le roman, seul cinq jours s'écoulent.
+Dans le livre, c'est Christian qui amène Anastasia au vernissage de José après l'avoir recontacté.
+Christian délimite une zone de son corps qu'Anastasia ne peut toucher. Dans le film, il s'agit d'une partie de son torse ; dans le livre, cela comprend également son dos.
+Lorsqu'ils sont sur le voilier, Christian dévoile à Anastasia comment Grace l'a recueilli après la mort de sa mère biologique. Dans le tome, c'est Carrick lors de la soirée de charité qui dévoilera à Anastasia ces informations.
+Les grands parents de Christian ainsi que Sean, le petit ami de Mia ne sont pas présents dans le film.
+Il en va de même pour Le Dr. Flynn, psychologue de Christian.
+Dans le tome, Elena souhaite le bonheur du couple mais menacera tout de même la jeune femme si elle fait du mal à Christian, tout en insistant pour la voir à plusieurs reprises afin d'apaiser les tensions. Dans le film, elle interfère moins dans leur histoire qui est de toute façon vouée à l'échec selon elle.
+Dans le livre, Anastasia acceptera de partir avec Jack pour New York et c'est Christian qui bloquera le déplacement.
+Après que Christian a maitrisé Leila, Anastasia part seule dans la rue. Dans le livre, elle se confiera à Ethan, le frère de Kate déjà absent du premier film.
+Christian demandera à Ray au téléphone la permission d'épouser d'Anastasia. Dans ce second film, Ray n'apparaît pas.
+Dans le tome 2, Kate découvrira interloquée la nature sadomasochiste entre Anastasia et Christian. Cette scène est également absente du film</t>
         </is>
       </c>
     </row>
